--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H2">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I2">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J2">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.51816558742175</v>
+        <v>1.720566666666667</v>
       </c>
       <c r="N2">
-        <v>1.51816558742175</v>
+        <v>5.1617</v>
       </c>
       <c r="O2">
-        <v>0.5692919502245611</v>
+        <v>0.3808042548680229</v>
       </c>
       <c r="P2">
-        <v>0.5692919502245611</v>
+        <v>0.3808042548680228</v>
       </c>
       <c r="Q2">
-        <v>27.65106316057124</v>
+        <v>0.4348101375555555</v>
       </c>
       <c r="R2">
-        <v>27.65106316057124</v>
+        <v>3.913291238</v>
       </c>
       <c r="S2">
-        <v>0.4971717188584551</v>
+        <v>0.004451088032276842</v>
       </c>
       <c r="T2">
-        <v>0.4971717188584551</v>
+        <v>0.004451088032276842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H3">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I3">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J3">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.402697307193454</v>
+        <v>1.631411</v>
       </c>
       <c r="N3">
-        <v>0.402697307193454</v>
+        <v>4.894233</v>
       </c>
       <c r="O3">
-        <v>0.1510061466691998</v>
+        <v>0.3610718853702246</v>
       </c>
       <c r="P3">
-        <v>0.1510061466691998</v>
+        <v>0.3610718853702246</v>
       </c>
       <c r="Q3">
-        <v>7.334515265036649</v>
+        <v>0.4122793118466667</v>
       </c>
       <c r="R3">
-        <v>7.334515265036649</v>
+        <v>3.71051380662</v>
       </c>
       <c r="S3">
-        <v>0.1318760707368228</v>
+        <v>0.00422044325192754</v>
       </c>
       <c r="T3">
-        <v>0.1318760707368228</v>
+        <v>0.00422044325192754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H4">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I4">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J4">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.311638044676314</v>
+        <v>0.406112</v>
       </c>
       <c r="N4">
-        <v>0.311638044676314</v>
+        <v>1.218336</v>
       </c>
       <c r="O4">
-        <v>0.1168601315217811</v>
+        <v>0.08988270001334592</v>
       </c>
       <c r="P4">
-        <v>0.1168601315217811</v>
+        <v>0.08988270001334589</v>
       </c>
       <c r="Q4">
-        <v>5.676010132212162</v>
+        <v>0.1026299172266667</v>
       </c>
       <c r="R4">
-        <v>5.676010132212162</v>
+        <v>0.9236692550400001</v>
       </c>
       <c r="S4">
-        <v>0.1020558123679621</v>
+        <v>0.001050607510876657</v>
       </c>
       <c r="T4">
-        <v>0.1020558123679621</v>
+        <v>0.001050607510876657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H5">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I5">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J5">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.434260090480463</v>
+        <v>0.3144226666666667</v>
       </c>
       <c r="N5">
-        <v>0.434260090480463</v>
+        <v>0.943268</v>
       </c>
       <c r="O5">
-        <v>0.162841771584458</v>
+        <v>0.0695895669800357</v>
       </c>
       <c r="P5">
-        <v>0.162841771584458</v>
+        <v>0.06958956698003568</v>
       </c>
       <c r="Q5">
-        <v>7.909383066957163</v>
+        <v>0.0794588001688889</v>
       </c>
       <c r="R5">
-        <v>7.909383066957163</v>
+        <v>0.71512920152</v>
       </c>
       <c r="S5">
-        <v>0.1422123103069797</v>
+        <v>0.0008134081612704559</v>
       </c>
       <c r="T5">
-        <v>0.1422123103069797</v>
+        <v>0.0008134081612704558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.64206432115377</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H6">
-        <v>2.64206432115377</v>
+        <v>0.75814</v>
       </c>
       <c r="I6">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J6">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51816558742175</v>
+        <v>0.445732</v>
       </c>
       <c r="N6">
-        <v>1.51816558742175</v>
+        <v>1.337196</v>
       </c>
       <c r="O6">
-        <v>0.5692919502245611</v>
+        <v>0.09865159276837103</v>
       </c>
       <c r="P6">
-        <v>0.5692919502245611</v>
+        <v>0.098651592768371</v>
       </c>
       <c r="Q6">
-        <v>4.011091132130461</v>
+        <v>0.1126424194933333</v>
       </c>
       <c r="R6">
-        <v>4.011091132130461</v>
+        <v>1.01378177544</v>
       </c>
       <c r="S6">
-        <v>0.07212023136610599</v>
+        <v>0.001153104037896132</v>
       </c>
       <c r="T6">
-        <v>0.07212023136610599</v>
+        <v>0.001153104037896132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.64206432115377</v>
+        <v>18.279338</v>
       </c>
       <c r="H7">
-        <v>2.64206432115377</v>
+        <v>54.838014</v>
       </c>
       <c r="I7">
-        <v>0.1266840877297802</v>
+        <v>0.8454670731839307</v>
       </c>
       <c r="J7">
-        <v>0.1266840877297802</v>
+        <v>0.8454670731839307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.402697307193454</v>
+        <v>1.720566666666667</v>
       </c>
       <c r="N7">
-        <v>0.402697307193454</v>
+        <v>5.1617</v>
       </c>
       <c r="O7">
-        <v>0.1510061466691998</v>
+        <v>0.3808042548680229</v>
       </c>
       <c r="P7">
-        <v>0.1510061466691998</v>
+        <v>0.3808042548680228</v>
       </c>
       <c r="Q7">
-        <v>1.063952187560524</v>
+        <v>31.45081965153333</v>
       </c>
       <c r="R7">
-        <v>1.063952187560524</v>
+        <v>283.0573768638</v>
       </c>
       <c r="S7">
-        <v>0.01913007593237697</v>
+        <v>0.3219574588192549</v>
       </c>
       <c r="T7">
-        <v>0.01913007593237697</v>
+        <v>0.3219574588192549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.64206432115377</v>
+        <v>18.279338</v>
       </c>
       <c r="H8">
-        <v>2.64206432115377</v>
+        <v>54.838014</v>
       </c>
       <c r="I8">
-        <v>0.1266840877297802</v>
+        <v>0.8454670731839307</v>
       </c>
       <c r="J8">
-        <v>0.1266840877297802</v>
+        <v>0.8454670731839307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.311638044676314</v>
+        <v>1.631411</v>
       </c>
       <c r="N8">
-        <v>0.311638044676314</v>
+        <v>4.894233</v>
       </c>
       <c r="O8">
-        <v>0.1168601315217811</v>
+        <v>0.3610718853702246</v>
       </c>
       <c r="P8">
-        <v>0.1168601315217811</v>
+        <v>0.3610718853702246</v>
       </c>
       <c r="Q8">
-        <v>0.8233677589534139</v>
+        <v>29.821113085918</v>
       </c>
       <c r="R8">
-        <v>0.8233677589534139</v>
+        <v>268.390017773262</v>
       </c>
       <c r="S8">
-        <v>0.01480431915381897</v>
+        <v>0.3052743901329675</v>
       </c>
       <c r="T8">
-        <v>0.01480431915381897</v>
+        <v>0.3052743901329675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.279338</v>
+      </c>
+      <c r="H9">
+        <v>54.838014</v>
+      </c>
+      <c r="I9">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J9">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.406112</v>
+      </c>
+      <c r="N9">
+        <v>1.218336</v>
+      </c>
+      <c r="O9">
+        <v>0.08988270001334592</v>
+      </c>
+      <c r="P9">
+        <v>0.08988270001334589</v>
+      </c>
+      <c r="Q9">
+        <v>7.423458513856001</v>
+      </c>
+      <c r="R9">
+        <v>66.811126624704</v>
+      </c>
+      <c r="S9">
+        <v>0.07599286331015281</v>
+      </c>
+      <c r="T9">
+        <v>0.0759928633101528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.279338</v>
+      </c>
+      <c r="H10">
+        <v>54.838014</v>
+      </c>
+      <c r="I10">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J10">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3144226666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.943268</v>
+      </c>
+      <c r="O10">
+        <v>0.0695895669800357</v>
+      </c>
+      <c r="P10">
+        <v>0.06958956698003568</v>
+      </c>
+      <c r="Q10">
+        <v>5.747438198861333</v>
+      </c>
+      <c r="R10">
+        <v>51.726943789752</v>
+      </c>
+      <c r="S10">
+        <v>0.05883568751874788</v>
+      </c>
+      <c r="T10">
+        <v>0.05883568751874788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.279338</v>
+      </c>
+      <c r="H11">
+        <v>54.838014</v>
+      </c>
+      <c r="I11">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J11">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.445732</v>
+      </c>
+      <c r="N11">
+        <v>1.337196</v>
+      </c>
+      <c r="O11">
+        <v>0.09865159276837103</v>
+      </c>
+      <c r="P11">
+        <v>0.098651592768371</v>
+      </c>
+      <c r="Q11">
+        <v>8.147685885415999</v>
+      </c>
+      <c r="R11">
+        <v>73.32917296874399</v>
+      </c>
+      <c r="S11">
+        <v>0.08340667340280768</v>
+      </c>
+      <c r="T11">
+        <v>0.08340667340280765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H12">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J12">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.720566666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.1617</v>
+      </c>
+      <c r="O12">
+        <v>0.3808042548680229</v>
+      </c>
+      <c r="P12">
+        <v>0.3808042548680228</v>
+      </c>
+      <c r="Q12">
+        <v>5.313713212044445</v>
+      </c>
+      <c r="R12">
+        <v>47.8234189084</v>
+      </c>
+      <c r="S12">
+        <v>0.05439570801649118</v>
+      </c>
+      <c r="T12">
+        <v>0.05439570801649117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.64206432115377</v>
-      </c>
-      <c r="H9">
-        <v>2.64206432115377</v>
-      </c>
-      <c r="I9">
-        <v>0.1266840877297802</v>
-      </c>
-      <c r="J9">
-        <v>0.1266840877297802</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.434260090480463</v>
-      </c>
-      <c r="N9">
-        <v>0.434260090480463</v>
-      </c>
-      <c r="O9">
-        <v>0.162841771584458</v>
-      </c>
-      <c r="P9">
-        <v>0.162841771584458</v>
-      </c>
-      <c r="Q9">
-        <v>1.147343091159439</v>
-      </c>
-      <c r="R9">
-        <v>1.147343091159439</v>
-      </c>
-      <c r="S9">
-        <v>0.02062946127747832</v>
-      </c>
-      <c r="T9">
-        <v>0.02062946127747832</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H13">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J13">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.631411</v>
+      </c>
+      <c r="N13">
+        <v>4.894233</v>
+      </c>
+      <c r="O13">
+        <v>0.3610718853702246</v>
+      </c>
+      <c r="P13">
+        <v>0.3610718853702246</v>
+      </c>
+      <c r="Q13">
+        <v>5.038369249457333</v>
+      </c>
+      <c r="R13">
+        <v>45.345323245116</v>
+      </c>
+      <c r="S13">
+        <v>0.05157705198532957</v>
+      </c>
+      <c r="T13">
+        <v>0.05157705198532957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J14">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.406112</v>
+      </c>
+      <c r="N14">
+        <v>1.218336</v>
+      </c>
+      <c r="O14">
+        <v>0.08988270001334592</v>
+      </c>
+      <c r="P14">
+        <v>0.08988270001334589</v>
+      </c>
+      <c r="Q14">
+        <v>1.254216265941334</v>
+      </c>
+      <c r="R14">
+        <v>11.287946393472</v>
+      </c>
+      <c r="S14">
+        <v>0.01283922919231645</v>
+      </c>
+      <c r="T14">
+        <v>0.01283922919231644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J15">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3144226666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.943268</v>
+      </c>
+      <c r="O15">
+        <v>0.0695895669800357</v>
+      </c>
+      <c r="P15">
+        <v>0.06958956698003568</v>
+      </c>
+      <c r="Q15">
+        <v>0.9710474522151112</v>
+      </c>
+      <c r="R15">
+        <v>8.739427069936001</v>
+      </c>
+      <c r="S15">
+        <v>0.009940471300017359</v>
+      </c>
+      <c r="T15">
+        <v>0.009940471300017358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J16">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.445732</v>
+      </c>
+      <c r="N16">
+        <v>1.337196</v>
+      </c>
+      <c r="O16">
+        <v>0.09865159276837103</v>
+      </c>
+      <c r="P16">
+        <v>0.098651592768371</v>
+      </c>
+      <c r="Q16">
+        <v>1.376576719354667</v>
+      </c>
+      <c r="R16">
+        <v>12.389190474192</v>
+      </c>
+      <c r="S16">
+        <v>0.01409181532766723</v>
+      </c>
+      <c r="T16">
+        <v>0.01409181532766723</v>
       </c>
     </row>
   </sheetData>
